--- a/data/fact_data/Beed/beed_sec_Apr_19.xlsx
+++ b/data/fact_data/Beed/beed_sec_Apr_19.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Beed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD937C-C721-0C44-AAB6-B05DCD7051EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F4228-D2AB-1E4E-8C10-FE81EABAB88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beed_Arun_Apr_19" sheetId="1" r:id="rId1"/>
     <sheet name="beed_vankatesh_Apr_19" sheetId="2" r:id="rId2"/>
     <sheet name="beed_surveshwer_Apr_19" sheetId="3" r:id="rId3"/>
-    <sheet name="beed_vijay_Apr_19" sheetId="4" r:id="rId4"/>
+    <sheet name="beed_Anil_Apr_19" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">beed_Arun_Apr_19!$A$1:$E$62</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="89">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -263,9 +263,6 @@
     <t>TOTAL PHYSIOMER :</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>region_name</t>
   </si>
   <si>
@@ -294,6 +291,21 @@
   </si>
   <si>
     <t>Apr</t>
+  </si>
+  <si>
+    <t>Vankatesh</t>
+  </si>
+  <si>
+    <t>Surveshwer</t>
+  </si>
+  <si>
+    <t>Anil Kumar</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
 </sst>
 </file>
@@ -518,6 +530,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -1887,13 +1900,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -1902,16 +1915,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1919,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>63</v>
@@ -1938,7 +1951,7 @@
         <v>1215</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1949,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>63</v>
@@ -1968,7 +1981,7 @@
         <v>4977</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1979,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>63</v>
@@ -1998,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2009,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>63</v>
@@ -2028,7 +2041,7 @@
         <v>46784</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2039,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -2058,7 +2071,7 @@
         <v>1560</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2069,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>63</v>
@@ -2088,7 +2101,7 @@
         <v>1464</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2099,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>63</v>
@@ -2118,7 +2131,7 @@
         <v>880</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2129,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>63</v>
@@ -2148,7 +2161,7 @@
         <v>627</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2159,7 +2172,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>63</v>
@@ -2174,7 +2187,7 @@
         <v>8127</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2185,7 +2198,7 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>63</v>
@@ -2200,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2211,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>63</v>
@@ -2226,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2237,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>63</v>
@@ -2256,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2267,7 +2280,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>63</v>
@@ -2286,7 +2299,7 @@
         <v>83824</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2297,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>63</v>
@@ -2316,7 +2329,7 @@
         <v>5537</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2327,7 +2340,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>63</v>
@@ -2339,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2350,7 +2363,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>63</v>
@@ -2369,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2380,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>63</v>
@@ -2399,7 +2412,7 @@
         <v>20286</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2410,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>63</v>
@@ -2425,7 +2438,7 @@
         <v>17297</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2436,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>63</v>
@@ -2451,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2462,7 +2475,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>63</v>
@@ -2481,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2492,7 +2505,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>63</v>
@@ -2504,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2515,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>63</v>
@@ -2534,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2545,7 +2558,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>63</v>
@@ -2564,7 +2577,7 @@
         <v>204</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2575,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>63</v>
@@ -2594,7 +2607,7 @@
         <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2605,7 +2618,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>63</v>
@@ -2624,7 +2637,7 @@
         <v>16800</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2635,7 +2648,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>63</v>
@@ -2650,7 +2663,7 @@
         <v>28220</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2661,7 +2674,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>63</v>
@@ -2676,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2687,7 +2700,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>63</v>
@@ -2706,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2717,7 +2730,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>63</v>
@@ -2736,7 +2749,7 @@
         <v>538</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2747,7 +2760,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>63</v>
@@ -2766,7 +2779,7 @@
         <v>1266</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2777,7 +2790,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>63</v>
@@ -2796,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2807,7 +2820,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>63</v>
@@ -2826,7 +2839,7 @@
         <v>3460</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2837,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>63</v>
@@ -2856,7 +2869,7 @@
         <v>1726</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2867,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>63</v>
@@ -2879,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2890,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>63</v>
@@ -2909,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2920,7 +2933,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>63</v>
@@ -2939,7 +2952,7 @@
         <v>13670</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2950,7 +2963,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>63</v>
@@ -2969,7 +2982,7 @@
         <v>11460</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2980,7 +2993,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>63</v>
@@ -2999,7 +3012,7 @@
         <v>2856</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3010,7 +3023,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>63</v>
@@ -3029,7 +3042,7 @@
         <v>15444</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3040,7 +3053,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>63</v>
@@ -3059,7 +3072,7 @@
         <v>5432</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3070,7 +3083,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>63</v>
@@ -3089,7 +3102,7 @@
         <v>1270</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3097,10 +3110,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>63</v>
@@ -3119,7 +3132,7 @@
         <v>1184</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3130,7 +3143,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>63</v>
@@ -3149,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3160,7 +3173,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>63</v>
@@ -3172,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3183,7 +3196,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>63</v>
@@ -3195,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3206,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>63</v>
@@ -3225,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3236,7 +3249,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>63</v>
@@ -3255,7 +3268,7 @@
         <v>2826</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3266,7 +3279,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>63</v>
@@ -3285,7 +3298,7 @@
         <v>3122</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3296,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>63</v>
@@ -3308,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3319,7 +3332,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>63</v>
@@ -3338,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3349,7 +3362,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>63</v>
@@ -3362,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3373,7 +3386,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>63</v>
@@ -3392,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3403,7 +3416,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>63</v>
@@ -3416,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3427,7 +3440,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>63</v>
@@ -3446,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3457,7 +3470,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>63</v>
@@ -3470,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3481,7 +3494,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>63</v>
@@ -3496,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3507,7 +3520,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>63</v>
@@ -3522,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3533,7 +3546,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>63</v>
@@ -3548,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3559,7 +3572,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>63</v>
@@ -3574,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3585,7 +3598,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>63</v>
@@ -3600,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3611,7 +3624,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>63</v>
@@ -3626,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3637,7 +3650,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>63</v>
@@ -3652,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3663,7 +3676,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>63</v>
@@ -3678,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3689,7 +3702,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>63</v>
@@ -3704,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3715,7 +3728,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>63</v>
@@ -3727,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3738,7 +3751,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>63</v>
@@ -3757,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3768,7 +3781,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>63</v>
@@ -3783,7 +3796,7 @@
         <v>3450</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3794,7 +3807,7 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>63</v>
@@ -3809,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3820,7 +3833,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>63</v>
@@ -3839,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3850,7 +3863,7 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>63</v>
@@ -3860,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3871,7 +3884,7 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>63</v>
@@ -3887,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72">
         <v>2019</v>
@@ -3909,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33057766-FCC4-894D-A797-1D4C1BE05849}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3923,13 +3936,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>61</v>
@@ -3938,16 +3951,16 @@
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3955,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3">
         <v>25</v>
@@ -3974,7 +3987,7 @@
         <v>3375</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3985,10 +3998,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4000,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4011,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
         <v>145</v>
@@ -4030,7 +4043,7 @@
         <v>13195</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4041,10 +4054,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4056,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4067,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3">
         <v>26</v>
@@ -4086,7 +4099,7 @@
         <v>3380</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4097,10 +4110,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -4112,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4123,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3">
         <v>22</v>
@@ -4142,7 +4155,7 @@
         <v>1936</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4153,10 +4166,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D9" s="3">
         <v>67</v>
@@ -4172,7 +4185,7 @@
         <v>3819</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4183,10 +4196,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4198,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4209,10 +4222,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4224,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4235,10 +4248,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -4254,7 +4267,7 @@
         <v>446</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4265,10 +4278,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
         <v>466</v>
@@ -4284,7 +4297,7 @@
         <v>28426</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4295,10 +4308,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>31</v>
@@ -4314,7 +4327,7 @@
         <v>3224</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4325,10 +4338,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4340,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4351,10 +4364,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4363,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4374,10 +4387,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3">
         <v>357</v>
@@ -4393,7 +4406,7 @@
         <v>24990</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4404,10 +4417,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3">
         <v>514</v>
@@ -4423,7 +4436,7 @@
         <v>25186</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4434,10 +4447,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4449,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4460,10 +4473,10 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4475,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4486,10 +4499,10 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -4505,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4516,10 +4529,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4528,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4539,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -4558,7 +4571,7 @@
         <v>2552</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4569,10 +4582,10 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -4588,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4599,10 +4612,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3">
         <v>15</v>
@@ -4618,7 +4631,7 @@
         <v>3600</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4629,10 +4642,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D26" s="3">
         <v>14</v>
@@ -4648,7 +4661,7 @@
         <v>6720</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4659,10 +4672,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4674,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4685,10 +4698,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4700,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4711,10 +4724,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -4730,7 +4743,7 @@
         <v>360</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4741,10 +4754,10 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -4760,7 +4773,7 @@
         <v>538</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4771,10 +4784,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4786,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4797,10 +4810,10 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -4816,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4827,10 +4840,10 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -4846,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4857,10 +4870,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -4876,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4887,10 +4900,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4899,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4910,10 +4923,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -4929,7 +4942,7 @@
         <v>2272</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4940,10 +4953,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -4959,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4970,10 +4983,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -4989,7 +5002,7 @@
         <v>4775</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -5000,10 +5013,10 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -5019,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5030,10 +5043,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -5049,7 +5062,7 @@
         <v>1287</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5060,10 +5073,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -5079,7 +5092,7 @@
         <v>1358</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5090,10 +5103,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -5109,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5120,10 +5133,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -5139,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5150,10 +5163,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -5169,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5180,10 +5193,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -5192,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5203,10 +5216,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -5215,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5226,10 +5239,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D47" s="3">
         <v>13</v>
@@ -5245,7 +5258,7 @@
         <v>12792</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5256,10 +5269,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D48" s="3">
         <v>10</v>
@@ -5275,7 +5288,7 @@
         <v>1570</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5286,10 +5299,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -5305,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5316,10 +5329,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5328,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5339,10 +5352,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
@@ -5358,7 +5371,7 @@
         <v>1936</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5369,10 +5382,10 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5382,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5393,10 +5406,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -5412,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5423,10 +5436,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5436,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5447,10 +5460,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3">
         <v>16</v>
@@ -5466,7 +5479,7 @@
         <v>2480</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5477,10 +5490,10 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5490,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5501,10 +5514,10 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5516,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5527,10 +5540,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5542,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5553,10 +5566,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5568,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5579,10 +5592,10 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5594,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5605,10 +5618,10 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5620,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5631,10 +5644,10 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5646,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5657,10 +5670,10 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5672,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5683,10 +5696,10 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5698,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5709,10 +5722,10 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5724,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5735,10 +5748,10 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5747,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5758,10 +5771,10 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
@@ -5777,7 +5790,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5788,10 +5801,10 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5803,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5814,10 +5827,10 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -5833,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5844,10 +5857,10 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D70" s="3">
         <v>20</v>
@@ -5863,7 +5876,7 @@
         <v>3400</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5874,17 +5887,17 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5895,10 +5908,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D72">
         <v>179100</v>
@@ -5911,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72">
         <v>2019</v>
@@ -5926,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBE6F3-4A5E-5E4C-80AB-257483E97F08}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5935,35 +5948,36 @@
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5971,22 +5985,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="3"/>
       <c r="F2">
         <v>135</v>
       </c>
-      <c r="G2">
-        <f>D2*F2</f>
-        <v>0</v>
+      <c r="G2" t="e">
+        <f>#REF!*F2</f>
+        <v>#REF!</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5997,22 +6011,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="3"/>
       <c r="F3">
         <v>237</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">D3*F3</f>
-        <v>0</v>
+      <c r="G3" t="e">
+        <f>#REF!*F3</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -6023,26 +6037,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="3">
         <v>47</v>
       </c>
       <c r="F4">
         <v>91</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G4" t="e">
+        <f>#REF!*F4</f>
+        <v>#REF!</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -6053,22 +6065,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="3"/>
       <c r="F5">
         <v>344</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G5" t="e">
+        <f>#REF!*F5</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -6079,22 +6091,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="3"/>
       <c r="F6">
         <v>130</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" t="e">
+        <f>#REF!*F6</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6105,22 +6117,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="3"/>
       <c r="F7">
         <v>244</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" t="e">
+        <f>#REF!*F7</f>
+        <v>#REF!</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6131,12 +6143,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3">
+        <v>85</v>
+      </c>
+      <c r="D8" s="25">
         <v>1</v>
       </c>
       <c r="E8" s="3">
@@ -6145,12 +6157,12 @@
       <c r="F8">
         <v>88</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>88</v>
+      <c r="G8" t="e">
+        <f>#REF!*F8</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6161,22 +6173,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="3"/>
       <c r="F9">
         <v>57</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G9" t="e">
+        <f>#REF!*F9</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6187,22 +6199,22 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="3"/>
       <c r="F10" s="27">
         <v>63</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G10" t="e">
+        <f>#REF!*F10</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6213,22 +6225,22 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="3"/>
       <c r="F11" s="27">
         <v>50</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G11" t="e">
+        <f>#REF!*F11</f>
+        <v>#REF!</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6239,22 +6251,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="3"/>
       <c r="F12">
         <v>223</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G12" t="e">
+        <f>#REF!*F12</f>
+        <v>#REF!</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6265,12 +6277,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3">
+        <v>85</v>
+      </c>
+      <c r="D13" s="25">
         <v>31</v>
       </c>
       <c r="E13" s="3">
@@ -6279,12 +6291,12 @@
       <c r="F13">
         <v>61</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1891</v>
+      <c r="G13" t="e">
+        <f>#REF!*F13</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6295,12 +6307,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3">
+        <v>85</v>
+      </c>
+      <c r="D14" s="25">
         <v>23</v>
       </c>
       <c r="E14" s="3">
@@ -6309,12 +6321,12 @@
       <c r="F14">
         <v>104</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>2392</v>
+      <c r="G14" t="e">
+        <f>#REF!*F14</f>
+        <v>#REF!</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6325,26 +6337,24 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="3">
         <v>10</v>
       </c>
       <c r="F15">
         <v>49</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G15" t="e">
+        <f>#REF!*F15</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6355,19 +6365,19 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="3"/>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G16" t="e">
+        <f>#REF!*F16</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6378,12 +6388,12 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3">
+        <v>85</v>
+      </c>
+      <c r="D17" s="25">
         <v>12</v>
       </c>
       <c r="E17" s="3">
@@ -6392,12 +6402,12 @@
       <c r="F17">
         <v>70</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>840</v>
+      <c r="G17" t="e">
+        <f>#REF!*F17</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6408,12 +6418,12 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3">
+        <v>85</v>
+      </c>
+      <c r="D18" s="25">
         <v>20</v>
       </c>
       <c r="E18" s="3">
@@ -6422,12 +6432,12 @@
       <c r="F18">
         <v>49</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>980</v>
+      <c r="G18" t="e">
+        <f>#REF!*F18</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6438,22 +6448,22 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="3"/>
       <c r="F19">
         <v>49</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G19" t="e">
+        <f>#REF!*F19</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6464,22 +6474,22 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="3"/>
       <c r="F20">
         <v>399</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G20" t="e">
+        <f>#REF!*F20</f>
+        <v>#REF!</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6490,26 +6500,24 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="3">
         <v>15</v>
       </c>
       <c r="F21">
         <v>619</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G21" t="e">
+        <f>#REF!*F21</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6520,19 +6528,19 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="3"/>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G22" t="e">
+        <f>#REF!*F22</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6543,26 +6551,24 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23">
         <v>638</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G23" t="e">
+        <f>#REF!*F23</f>
+        <v>#REF!</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6573,26 +6579,24 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24">
         <v>68</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G24" t="e">
+        <f>#REF!*F24</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6603,12 +6607,12 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3">
+        <v>85</v>
+      </c>
+      <c r="D25" s="25">
         <v>2</v>
       </c>
       <c r="E25" s="3">
@@ -6617,12 +6621,12 @@
       <c r="F25">
         <v>240</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>480</v>
+      <c r="G25" t="e">
+        <f>#REF!*F25</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6633,12 +6637,12 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3">
+        <v>85</v>
+      </c>
+      <c r="D26" s="25">
         <v>3</v>
       </c>
       <c r="E26" s="3">
@@ -6647,12 +6651,12 @@
       <c r="F26">
         <v>480</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>1440</v>
+      <c r="G26" t="e">
+        <f>#REF!*F26</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6663,22 +6667,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="3"/>
       <c r="F27">
         <v>830</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G27" t="e">
+        <f>#REF!*F27</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6689,22 +6693,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="3"/>
       <c r="F28">
         <v>430</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G28" t="e">
+        <f>#REF!*F28</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6715,26 +6719,24 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29">
         <v>360</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G29" t="e">
+        <f>#REF!*F29</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6745,26 +6747,24 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="3">
         <v>4</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G30" t="e">
+        <f>#REF!*F30</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6775,26 +6775,24 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D31" s="25"/>
       <c r="E31" s="3">
         <v>5</v>
       </c>
       <c r="F31">
         <v>633</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G31" t="e">
+        <f>#REF!*F31</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6805,26 +6803,24 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D32" s="25"/>
       <c r="E32" s="3">
         <v>4</v>
       </c>
       <c r="F32">
         <v>789</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G32" t="e">
+        <f>#REF!*F32</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6835,22 +6831,22 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D33" s="25"/>
       <c r="E33" s="3"/>
       <c r="F33">
         <v>865</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G33" t="e">
+        <f>#REF!*F33</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6861,22 +6857,22 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D34" s="25"/>
       <c r="E34" s="3"/>
       <c r="F34">
         <v>863</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G34" t="e">
+        <f>#REF!*F34</f>
+        <v>#REF!</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6887,19 +6883,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="3"/>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G35" t="e">
+        <f>#REF!*F35</f>
+        <v>#REF!</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6910,12 +6906,12 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="3">
+        <v>85</v>
+      </c>
+      <c r="D36" s="25">
         <v>1</v>
       </c>
       <c r="E36" s="3">
@@ -6924,12 +6920,12 @@
       <c r="F36">
         <v>1136</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>1136</v>
+      <c r="G36" t="e">
+        <f>#REF!*F36</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6940,26 +6936,24 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="3">
         <v>2</v>
       </c>
       <c r="F37">
         <v>1367</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G37" t="e">
+        <f>#REF!*F37</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6970,26 +6964,24 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="3">
         <v>4</v>
       </c>
       <c r="F38">
         <v>955</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G38" t="e">
+        <f>#REF!*F38</f>
+        <v>#REF!</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -7000,26 +6992,24 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D39" s="25"/>
       <c r="E39" s="3">
         <v>10</v>
       </c>
       <c r="F39">
         <v>168</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G39" t="e">
+        <f>#REF!*F39</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -7030,22 +7020,22 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="25"/>
       <c r="E40" s="3"/>
       <c r="F40">
         <v>1287</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G40" t="e">
+        <f>#REF!*F40</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7056,22 +7046,22 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D41" s="25"/>
       <c r="E41" s="3"/>
       <c r="F41">
         <v>1358</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G41" t="e">
+        <f>#REF!*F41</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7082,26 +7072,24 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D42" s="25"/>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42">
         <v>1270</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G42" t="e">
+        <f>#REF!*F42</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7112,26 +7100,24 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D43" s="25"/>
       <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="F43">
         <v>1184</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G43" t="e">
+        <f>#REF!*F43</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7142,26 +7128,24 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44">
         <v>755</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G44" t="e">
+        <f>#REF!*F44</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7172,19 +7156,19 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="3"/>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G45" t="e">
+        <f>#REF!*F45</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7195,19 +7179,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D46" s="25"/>
       <c r="E46" s="3"/>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G46" t="e">
+        <f>#REF!*F46</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7218,12 +7202,12 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="3">
+        <v>85</v>
+      </c>
+      <c r="D47" s="25">
         <v>3</v>
       </c>
       <c r="E47" s="3">
@@ -7232,12 +7216,12 @@
       <c r="F47">
         <v>984</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>2952</v>
+      <c r="G47" t="e">
+        <f>#REF!*F47</f>
+        <v>#REF!</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7248,26 +7232,24 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D48" s="25"/>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48">
         <v>157</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G48" t="e">
+        <f>#REF!*F48</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7278,26 +7260,24 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D49" s="25"/>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49">
         <v>223</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G49" t="e">
+        <f>#REF!*F49</f>
+        <v>#REF!</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7308,19 +7288,19 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D50" s="25"/>
       <c r="E50" s="3"/>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G50" t="e">
+        <f>#REF!*F50</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7331,26 +7311,24 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D51" s="25"/>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51">
         <v>484</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G51" t="e">
+        <f>#REF!*F51</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7361,20 +7339,20 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D52" s="25"/>
       <c r="E52" s="3"/>
       <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G52" t="e">
+        <f>#REF!*F52</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7385,26 +7363,24 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="3">
         <v>15</v>
       </c>
       <c r="F53">
         <v>769</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G53" t="e">
+        <f>#REF!*F53</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7415,22 +7391,20 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D54" s="25"/>
       <c r="E54" s="3"/>
       <c r="F54" s="27"/>
       <c r="G54" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <f>#REF!*F54</f>
+        <v>#REF!</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7441,26 +7415,24 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D55" s="25"/>
       <c r="E55" s="3">
         <v>0</v>
       </c>
       <c r="F55">
         <v>155</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G55" t="e">
+        <f>#REF!*F55</f>
+        <v>#REF!</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7471,20 +7443,20 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D56" s="25"/>
       <c r="E56" s="3"/>
       <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G56" t="e">
+        <f>#REF!*F56</f>
+        <v>#REF!</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7495,22 +7467,22 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="3"/>
       <c r="F57">
         <v>98</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G57" t="e">
+        <f>#REF!*F57</f>
+        <v>#REF!</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7521,22 +7493,22 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="3"/>
       <c r="F58">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G58" t="e">
+        <f>#REF!*F58</f>
+        <v>#REF!</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7547,22 +7519,22 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="3"/>
       <c r="F59" s="27">
         <v>112</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G59" t="e">
+        <f>#REF!*F59</f>
+        <v>#REF!</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7573,22 +7545,22 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D60" s="25"/>
       <c r="E60" s="3"/>
       <c r="F60" s="27">
         <v>225</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G60" t="e">
+        <f>#REF!*F60</f>
+        <v>#REF!</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7599,22 +7571,22 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D61" s="25"/>
       <c r="E61" s="3"/>
       <c r="F61" s="27">
         <v>80</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G61" t="e">
+        <f>#REF!*F61</f>
+        <v>#REF!</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7625,22 +7597,22 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D62" s="25"/>
       <c r="E62" s="3"/>
       <c r="F62" s="27">
         <v>80</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G62" t="e">
+        <f>#REF!*F62</f>
+        <v>#REF!</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7651,22 +7623,22 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D63" s="25"/>
       <c r="E63" s="3"/>
       <c r="F63" s="27">
         <v>80</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G63" t="e">
+        <f>#REF!*F63</f>
+        <v>#REF!</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7677,22 +7649,22 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D64" s="25"/>
       <c r="E64" s="3"/>
       <c r="F64" s="27">
         <v>125</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G64" t="e">
+        <f>#REF!*F64</f>
+        <v>#REF!</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7703,22 +7675,22 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="3"/>
       <c r="F65" s="27">
         <v>127</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G65" t="e">
+        <f>#REF!*F65</f>
+        <v>#REF!</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7729,19 +7701,19 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D66" s="25"/>
       <c r="E66" s="3"/>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G66" t="e">
+        <f>#REF!*F66</f>
+        <v>#REF!</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7752,12 +7724,12 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="3">
+        <v>85</v>
+      </c>
+      <c r="D67" s="25">
         <v>1</v>
       </c>
       <c r="E67" s="3">
@@ -7766,12 +7738,12 @@
       <c r="F67" s="27">
         <v>30</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">D67*F67</f>
-        <v>30</v>
+      <c r="G67" t="e">
+        <f>#REF!*F67</f>
+        <v>#REF!</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7782,22 +7754,22 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="3"/>
       <c r="F68" s="27">
         <v>345</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G68" t="e">
+        <f>#REF!*F68</f>
+        <v>#REF!</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7808,26 +7780,24 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D69" s="25"/>
       <c r="E69" s="3">
         <v>10</v>
       </c>
       <c r="F69">
         <v>48</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G69" t="e">
+        <f>#REF!*F69</f>
+        <v>#REF!</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7838,26 +7808,24 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D70" s="25"/>
       <c r="E70" s="3">
         <v>15</v>
       </c>
       <c r="F70">
         <v>170</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G70" t="e">
+        <f>#REF!*F70</f>
+        <v>#REF!</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7868,17 +7836,18 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="G71" t="e">
+        <f>#REF!*F71</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7889,23 +7858,21 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72">
-        <v>11999</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D72" s="25"/>
       <c r="E72">
         <v>96895</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G72" t="e">
+        <f>#REF!*F72</f>
+        <v>#REF!</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72">
         <v>2019</v>
@@ -7920,44 +7887,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71E2C1-B45E-0E4A-804A-0318581059A8}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7965,12 +7931,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3">
+        <v>86</v>
+      </c>
+      <c r="D2" s="25">
         <v>0</v>
       </c>
       <c r="E2" s="3">
@@ -7979,12 +7945,12 @@
       <c r="F2">
         <v>135</v>
       </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>0</v>
+      <c r="G2" t="e">
+        <f>F2*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7995,12 +7961,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3">
+        <v>86</v>
+      </c>
+      <c r="D3" s="25">
         <v>0</v>
       </c>
       <c r="E3" s="3">
@@ -8009,12 +7975,12 @@
       <c r="F3">
         <v>237</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">F3*D3</f>
-        <v>0</v>
+      <c r="G3" t="e">
+        <f>F3*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -8025,12 +7991,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3">
+        <v>86</v>
+      </c>
+      <c r="D4" s="25">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -8039,12 +8005,12 @@
       <c r="F4">
         <v>91</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G4" t="e">
+        <f>F4*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -8055,12 +8021,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3">
+        <v>86</v>
+      </c>
+      <c r="D5" s="25">
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -8069,12 +8035,12 @@
       <c r="F5">
         <v>344</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G5" t="e">
+        <f>F5*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8085,12 +8051,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="3">
+        <v>86</v>
+      </c>
+      <c r="D6" s="25">
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -8099,12 +8065,12 @@
       <c r="F6">
         <v>130</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G6" t="e">
+        <f>F6*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8115,12 +8081,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3">
+        <v>86</v>
+      </c>
+      <c r="D7" s="25">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -8129,12 +8095,12 @@
       <c r="F7">
         <v>244</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G7" t="e">
+        <f>F7*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8145,12 +8111,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3">
+        <v>86</v>
+      </c>
+      <c r="D8" s="25">
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -8159,12 +8125,12 @@
       <c r="F8">
         <v>88</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G8" t="e">
+        <f>F8*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8175,12 +8141,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3">
+        <v>86</v>
+      </c>
+      <c r="D9" s="25">
         <v>0</v>
       </c>
       <c r="E9" s="3">
@@ -8189,12 +8155,12 @@
       <c r="F9">
         <v>57</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G9" t="e">
+        <f>F9*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8205,12 +8171,12 @@
         <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3">
+        <v>86</v>
+      </c>
+      <c r="D10" s="25">
         <v>0</v>
       </c>
       <c r="E10" s="3">
@@ -8219,12 +8185,12 @@
       <c r="F10" s="27">
         <v>63</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G10" t="e">
+        <f>F10*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8235,12 +8201,12 @@
         <v>54</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25">
         <v>0</v>
       </c>
       <c r="E11" s="3">
@@ -8249,12 +8215,12 @@
       <c r="F11" s="27">
         <v>50</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G11" t="e">
+        <f>F11*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8265,12 +8231,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3">
+        <v>86</v>
+      </c>
+      <c r="D12" s="25">
         <v>0</v>
       </c>
       <c r="E12" s="3">
@@ -8279,12 +8245,12 @@
       <c r="F12">
         <v>223</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G12" t="e">
+        <f>F12*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8295,12 +8261,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3">
+        <v>86</v>
+      </c>
+      <c r="D13" s="25">
         <v>0</v>
       </c>
       <c r="E13" s="3">
@@ -8309,12 +8275,12 @@
       <c r="F13">
         <v>61</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G13" t="e">
+        <f>F13*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8325,12 +8291,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3">
+        <v>86</v>
+      </c>
+      <c r="D14" s="25">
         <v>0</v>
       </c>
       <c r="E14" s="3">
@@ -8339,12 +8305,12 @@
       <c r="F14">
         <v>104</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G14" t="e">
+        <f>F14*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8355,12 +8321,12 @@
         <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3">
+        <v>86</v>
+      </c>
+      <c r="D15" s="25">
         <v>0</v>
       </c>
       <c r="E15" s="3">
@@ -8369,12 +8335,12 @@
       <c r="F15">
         <v>49</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G15" t="e">
+        <f>F15*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8385,23 +8351,23 @@
         <v>31</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3">
+        <v>86</v>
+      </c>
+      <c r="D16" s="25">
         <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G16" t="e">
+        <f>F16*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8412,12 +8378,12 @@
         <v>32</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3">
+        <v>86</v>
+      </c>
+      <c r="D17" s="25">
         <v>0</v>
       </c>
       <c r="E17" s="3">
@@ -8426,12 +8392,12 @@
       <c r="F17">
         <v>70</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G17" t="e">
+        <f>F17*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8442,12 +8408,12 @@
         <v>44</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3">
+        <v>86</v>
+      </c>
+      <c r="D18" s="25">
         <v>0</v>
       </c>
       <c r="E18" s="3">
@@ -8456,12 +8422,12 @@
       <c r="F18">
         <v>49</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G18" t="e">
+        <f>F18*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8472,12 +8438,12 @@
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3">
+        <v>86</v>
+      </c>
+      <c r="D19" s="25">
         <v>0</v>
       </c>
       <c r="E19" s="3">
@@ -8486,12 +8452,12 @@
       <c r="F19">
         <v>49</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G19" t="e">
+        <f>F19*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8502,12 +8468,12 @@
         <v>45</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3">
+        <v>86</v>
+      </c>
+      <c r="D20" s="25">
         <v>0</v>
       </c>
       <c r="E20" s="3">
@@ -8516,12 +8482,12 @@
       <c r="F20">
         <v>399</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G20" t="e">
+        <f>F20*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8532,12 +8498,12 @@
         <v>56</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3">
+        <v>86</v>
+      </c>
+      <c r="D21" s="25">
         <v>0</v>
       </c>
       <c r="E21" s="3">
@@ -8546,12 +8512,12 @@
       <c r="F21">
         <v>619</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G21" t="e">
+        <f>F21*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8562,23 +8528,23 @@
         <v>46</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3">
+        <v>86</v>
+      </c>
+      <c r="D22" s="25">
         <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G22" t="e">
+        <f>F22*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8589,12 +8555,12 @@
         <v>11</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3">
+        <v>86</v>
+      </c>
+      <c r="D23" s="25">
         <v>0</v>
       </c>
       <c r="E23" s="3">
@@ -8603,12 +8569,12 @@
       <c r="F23">
         <v>638</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G23" t="e">
+        <f>F23*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8619,12 +8585,12 @@
         <v>52</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3">
+        <v>86</v>
+      </c>
+      <c r="D24" s="25">
         <v>0</v>
       </c>
       <c r="E24" s="3">
@@ -8633,12 +8599,12 @@
       <c r="F24">
         <v>68</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G24" t="e">
+        <f>F24*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8649,12 +8615,12 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3">
+        <v>86</v>
+      </c>
+      <c r="D25" s="25">
         <v>0</v>
       </c>
       <c r="E25" s="3">
@@ -8663,12 +8629,12 @@
       <c r="F25">
         <v>240</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G25" t="e">
+        <f>F25*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8679,12 +8645,12 @@
         <v>13</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3">
+        <v>86</v>
+      </c>
+      <c r="D26" s="25">
         <v>0</v>
       </c>
       <c r="E26" s="3">
@@ -8693,12 +8659,12 @@
       <c r="F26">
         <v>480</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G26" t="e">
+        <f>F26*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8709,12 +8675,12 @@
         <v>27</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3">
+        <v>86</v>
+      </c>
+      <c r="D27" s="25">
         <v>0</v>
       </c>
       <c r="E27" s="3">
@@ -8723,12 +8689,12 @@
       <c r="F27">
         <v>830</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G27" t="e">
+        <f>F27*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8739,12 +8705,12 @@
         <v>28</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="3">
+        <v>86</v>
+      </c>
+      <c r="D28" s="25">
         <v>0</v>
       </c>
       <c r="E28" s="3">
@@ -8753,12 +8719,12 @@
       <c r="F28">
         <v>430</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G28" t="e">
+        <f>F28*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8769,12 +8735,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3">
+        <v>86</v>
+      </c>
+      <c r="D29" s="25">
         <v>0</v>
       </c>
       <c r="E29" s="3">
@@ -8783,12 +8749,12 @@
       <c r="F29">
         <v>360</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G29" t="e">
+        <f>F29*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8799,12 +8765,12 @@
         <v>57</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3">
+        <v>86</v>
+      </c>
+      <c r="D30" s="25">
         <v>0</v>
       </c>
       <c r="E30" s="3">
@@ -8813,12 +8779,12 @@
       <c r="F30">
         <v>269</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G30" t="e">
+        <f>F30*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8829,12 +8795,12 @@
         <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="3">
+        <v>86</v>
+      </c>
+      <c r="D31" s="25">
         <v>0</v>
       </c>
       <c r="E31" s="3">
@@ -8843,12 +8809,12 @@
       <c r="F31">
         <v>633</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G31" t="e">
+        <f>F31*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8859,12 +8825,12 @@
         <v>58</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3">
+        <v>86</v>
+      </c>
+      <c r="D32" s="25">
         <v>0</v>
       </c>
       <c r="E32" s="3">
@@ -8873,12 +8839,12 @@
       <c r="F32">
         <v>789</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G32" t="e">
+        <f>F32*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8889,12 +8855,12 @@
         <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="3">
+        <v>86</v>
+      </c>
+      <c r="D33" s="25">
         <v>0</v>
       </c>
       <c r="E33" s="3">
@@ -8903,12 +8869,12 @@
       <c r="F33">
         <v>865</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G33" t="e">
+        <f>F33*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8919,12 +8885,12 @@
         <v>14</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="3">
+        <v>86</v>
+      </c>
+      <c r="D34" s="25">
         <v>0</v>
       </c>
       <c r="E34" s="3">
@@ -8933,12 +8899,12 @@
       <c r="F34">
         <v>863</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G34" t="e">
+        <f>F34*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8949,23 +8915,23 @@
         <v>36</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="3">
+        <v>86</v>
+      </c>
+      <c r="D35" s="25">
         <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G35" t="e">
+        <f>F35*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8976,12 +8942,12 @@
         <v>15</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="3">
+        <v>86</v>
+      </c>
+      <c r="D36" s="25">
         <v>0</v>
       </c>
       <c r="E36" s="3">
@@ -8990,12 +8956,12 @@
       <c r="F36">
         <v>1136</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G36" t="e">
+        <f>F36*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -9006,12 +8972,12 @@
         <v>16</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="3">
+        <v>86</v>
+      </c>
+      <c r="D37" s="25">
         <v>0</v>
       </c>
       <c r="E37" s="3">
@@ -9020,12 +8986,12 @@
       <c r="F37">
         <v>1367</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G37" t="e">
+        <f>F37*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -9036,12 +9002,12 @@
         <v>17</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="3">
+        <v>86</v>
+      </c>
+      <c r="D38" s="25">
         <v>0</v>
       </c>
       <c r="E38" s="3">
@@ -9050,12 +9016,12 @@
       <c r="F38">
         <v>955</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G38" t="e">
+        <f>F38*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -9066,12 +9032,12 @@
         <v>24</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="3">
+        <v>86</v>
+      </c>
+      <c r="D39" s="25">
         <v>0</v>
       </c>
       <c r="E39" s="3">
@@ -9080,12 +9046,12 @@
       <c r="F39">
         <v>168</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G39" t="e">
+        <f>F39*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -9096,12 +9062,12 @@
         <v>18</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="3">
+        <v>86</v>
+      </c>
+      <c r="D40" s="25">
         <v>0</v>
       </c>
       <c r="E40" s="3">
@@ -9110,12 +9076,12 @@
       <c r="F40">
         <v>1287</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G40" t="e">
+        <f>F40*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9126,12 +9092,12 @@
         <v>19</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="3">
+        <v>86</v>
+      </c>
+      <c r="D41" s="25">
         <v>0</v>
       </c>
       <c r="E41" s="3">
@@ -9140,12 +9106,12 @@
       <c r="F41">
         <v>1358</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G41" t="e">
+        <f>F41*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9156,12 +9122,12 @@
         <v>48</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="3">
+        <v>86</v>
+      </c>
+      <c r="D42" s="25">
         <v>0</v>
       </c>
       <c r="E42" s="3">
@@ -9170,12 +9136,12 @@
       <c r="F42">
         <v>1270</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G42" t="e">
+        <f>F42*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9186,12 +9152,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="3">
+        <v>86</v>
+      </c>
+      <c r="D43" s="25">
         <v>0</v>
       </c>
       <c r="E43" s="3">
@@ -9200,12 +9166,12 @@
       <c r="F43">
         <v>1184</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G43" t="e">
+        <f>F43*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9216,12 +9182,12 @@
         <v>50</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3">
+        <v>86</v>
+      </c>
+      <c r="D44" s="25">
         <v>0</v>
       </c>
       <c r="E44" s="3">
@@ -9230,12 +9196,12 @@
       <c r="F44">
         <v>755</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G44" t="e">
+        <f>F44*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9246,23 +9212,23 @@
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="3">
+        <v>86</v>
+      </c>
+      <c r="D45" s="25">
         <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G45" t="e">
+        <f>F45*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9273,23 +9239,23 @@
         <v>47</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="3">
+        <v>86</v>
+      </c>
+      <c r="D46" s="25">
         <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G46" t="e">
+        <f>F46*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9300,12 +9266,12 @@
         <v>20</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="3">
+        <v>86</v>
+      </c>
+      <c r="D47" s="25">
         <v>0</v>
       </c>
       <c r="E47" s="3">
@@ -9314,12 +9280,12 @@
       <c r="F47">
         <v>984</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G47" t="e">
+        <f>F47*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9330,12 +9296,12 @@
         <v>21</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="3">
+        <v>86</v>
+      </c>
+      <c r="D48" s="25">
         <v>0</v>
       </c>
       <c r="E48" s="3">
@@ -9344,12 +9310,12 @@
       <c r="F48">
         <v>157</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G48" t="e">
+        <f>F48*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9360,12 +9326,12 @@
         <v>22</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3">
+        <v>86</v>
+      </c>
+      <c r="D49" s="25">
         <v>0</v>
       </c>
       <c r="E49" s="3">
@@ -9374,12 +9340,12 @@
       <c r="F49">
         <v>223</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G49" t="e">
+        <f>F49*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9390,23 +9356,23 @@
         <v>38</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="3">
+        <v>86</v>
+      </c>
+      <c r="D50" s="25">
         <v>0</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G50" t="e">
+        <f>F50*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9417,12 +9383,12 @@
         <v>34</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="3">
+        <v>86</v>
+      </c>
+      <c r="D51" s="25">
         <v>0</v>
       </c>
       <c r="E51" s="3">
@@ -9431,12 +9397,12 @@
       <c r="F51">
         <v>484</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G51" t="e">
+        <f>F51*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9447,24 +9413,24 @@
         <v>39</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="3">
+        <v>86</v>
+      </c>
+      <c r="D52" s="25">
         <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="27"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G52" t="e">
+        <f>F52*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9475,12 +9441,12 @@
         <v>25</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="3">
+        <v>86</v>
+      </c>
+      <c r="D53" s="25">
         <v>0</v>
       </c>
       <c r="E53" s="3">
@@ -9489,12 +9455,12 @@
       <c r="F53">
         <v>769</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G53" t="e">
+        <f>F53*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9505,24 +9471,24 @@
         <v>41</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="3">
+        <v>86</v>
+      </c>
+      <c r="D54" s="25">
         <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="27"/>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G54" t="e">
+        <f>F54*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9533,12 +9499,12 @@
         <v>26</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="3">
+        <v>86</v>
+      </c>
+      <c r="D55" s="25">
         <v>0</v>
       </c>
       <c r="E55" s="3">
@@ -9547,12 +9513,12 @@
       <c r="F55">
         <v>155</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G55" t="e">
+        <f>F55*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9563,24 +9529,24 @@
         <v>40</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3">
+        <v>86</v>
+      </c>
+      <c r="D56" s="25">
         <v>0</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="27"/>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G56" t="e">
+        <f>F56*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9591,12 +9557,12 @@
         <v>64</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="3">
+        <v>86</v>
+      </c>
+      <c r="D57" s="25">
         <v>0</v>
       </c>
       <c r="E57" s="3">
@@ -9605,12 +9571,12 @@
       <c r="F57">
         <v>98</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G57" t="e">
+        <f>F57*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9621,12 +9587,12 @@
         <v>65</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="3">
+        <v>86</v>
+      </c>
+      <c r="D58" s="25">
         <v>0</v>
       </c>
       <c r="E58" s="3">
@@ -9635,12 +9601,12 @@
       <c r="F58">
         <v>59</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G58" t="e">
+        <f>F58*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9651,12 +9617,12 @@
         <v>66</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3">
+        <v>86</v>
+      </c>
+      <c r="D59" s="25">
         <v>0</v>
       </c>
       <c r="E59" s="3">
@@ -9665,12 +9631,12 @@
       <c r="F59" s="27">
         <v>112</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G59" t="e">
+        <f>F59*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9681,12 +9647,12 @@
         <v>67</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="3">
+        <v>86</v>
+      </c>
+      <c r="D60" s="25">
         <v>0</v>
       </c>
       <c r="E60" s="3">
@@ -9695,12 +9661,12 @@
       <c r="F60" s="27">
         <v>225</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G60" t="e">
+        <f>F60*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9711,12 +9677,12 @@
         <v>68</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="3">
+        <v>86</v>
+      </c>
+      <c r="D61" s="25">
         <v>0</v>
       </c>
       <c r="E61" s="3">
@@ -9725,12 +9691,12 @@
       <c r="F61" s="27">
         <v>80</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G61" t="e">
+        <f>F61*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9741,12 +9707,12 @@
         <v>69</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="3">
+        <v>86</v>
+      </c>
+      <c r="D62" s="25">
         <v>0</v>
       </c>
       <c r="E62" s="3">
@@ -9755,12 +9721,12 @@
       <c r="F62" s="27">
         <v>80</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G62" t="e">
+        <f>F62*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9771,12 +9737,12 @@
         <v>70</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="3">
+        <v>86</v>
+      </c>
+      <c r="D63" s="25">
         <v>0</v>
       </c>
       <c r="E63" s="3">
@@ -9785,12 +9751,12 @@
       <c r="F63" s="27">
         <v>80</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G63" t="e">
+        <f>F63*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9801,12 +9767,12 @@
         <v>71</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3">
+        <v>86</v>
+      </c>
+      <c r="D64" s="25">
         <v>0</v>
       </c>
       <c r="E64" s="3">
@@ -9815,12 +9781,12 @@
       <c r="F64" s="27">
         <v>125</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G64" t="e">
+        <f>F64*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9831,12 +9797,12 @@
         <v>72</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="3">
+        <v>86</v>
+      </c>
+      <c r="D65" s="25">
         <v>0</v>
       </c>
       <c r="E65" s="3">
@@ -9845,12 +9811,12 @@
       <c r="F65" s="27">
         <v>127</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G65" t="e">
+        <f>F65*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9861,23 +9827,23 @@
         <v>73</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="3">
+        <v>86</v>
+      </c>
+      <c r="D66" s="25">
         <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G66" t="e">
+        <f>F66*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9888,12 +9854,12 @@
         <v>29</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="3">
+        <v>86</v>
+      </c>
+      <c r="D67" s="25">
         <v>0</v>
       </c>
       <c r="E67" s="3">
@@ -9902,12 +9868,12 @@
       <c r="F67" s="27">
         <v>30</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G72" si="1">F67*D67</f>
-        <v>0</v>
+      <c r="G67" t="e">
+        <f>F67*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9918,12 +9884,12 @@
         <v>35</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="3">
+        <v>86</v>
+      </c>
+      <c r="D68" s="25">
         <v>0</v>
       </c>
       <c r="E68" s="3">
@@ -9932,12 +9898,12 @@
       <c r="F68" s="27">
         <v>345</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G68" t="e">
+        <f>F68*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9948,12 +9914,12 @@
         <v>51</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="3">
+        <v>86</v>
+      </c>
+      <c r="D69" s="25">
         <v>0</v>
       </c>
       <c r="E69" s="3">
@@ -9962,12 +9928,12 @@
       <c r="F69">
         <v>48</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G69" t="e">
+        <f>F69*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9978,12 +9944,12 @@
         <v>53</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="3">
+        <v>86</v>
+      </c>
+      <c r="D70" s="25">
         <v>0</v>
       </c>
       <c r="E70" s="3">
@@ -9992,12 +9958,12 @@
       <c r="F70">
         <v>170</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G70" t="e">
+        <f>F70*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -10008,23 +9974,23 @@
         <v>42</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="3">
+        <v>86</v>
+      </c>
+      <c r="D71" s="25">
         <v>0</v>
       </c>
       <c r="E71" s="3">
         <v>0</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G71" t="e">
+        <f>F71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -10035,23 +10001,23 @@
         <v>43</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="3">
+        <v>86</v>
+      </c>
+      <c r="D72" s="25">
         <v>0</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G72" t="e">
+        <f>F72*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I72">
         <v>2019</v>
